--- a/Arch/PROJECT_Aritmeticki_modul_tabela.xlsx
+++ b/Arch/PROJECT_Aritmeticki_modul_tabela.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="перед ADDER" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Increment" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="1bit-sab" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="overflow" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="logično" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>A+B</t>
   </si>
@@ -171,6 +172,21 @@
   </si>
   <si>
     <t>Cout</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>NOT</t>
   </si>
 </sst>
 </file>
@@ -217,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -253,39 +269,13 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
       <vertical style="thin">
         <color theme="0"/>
       </vertical>
       <horizontal style="thin">
         <color theme="0"/>
       </horizontal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -314,28 +304,6 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="none"/>
       <right style="none"/>
       <top style="thin">
@@ -350,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,74 +341,28 @@
     <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,6 +964,212 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="8">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25"/>
+    <row r="14" ht="14.25">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
@@ -1052,10 +1180,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1066,56 +1194,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1148,344 +1276,344 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12">
-        <v>1</v>
-      </c>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>1</v>
-      </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="14" t="s">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>1</v>
-      </c>
-      <c r="L3" s="14" t="s">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="9">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>1</v>
-      </c>
-      <c r="K4" s="12">
-        <v>1</v>
-      </c>
-      <c r="L4" s="14" t="s">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12">
-        <v>1</v>
-      </c>
-      <c r="K5" s="12">
-        <v>1</v>
-      </c>
-      <c r="L5" s="14" t="s">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
-        <v>1</v>
-      </c>
-      <c r="K6" s="12">
-        <v>1</v>
-      </c>
-      <c r="L6" s="14" t="s">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12">
-        <v>1</v>
-      </c>
-      <c r="L7" s="14" t="s">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1</v>
-      </c>
-      <c r="L8" s="14" t="s">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12">
-        <v>1</v>
-      </c>
-      <c r="K9" s="12">
-        <v>1</v>
-      </c>
-      <c r="L9" s="14" t="s">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1511,31 +1639,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1546,238 +1674,238 @@
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="9">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="9">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="A6" s="8">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1806,228 +1934,228 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12">
-        <v>1</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="9">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="A6" s="8">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="9">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="A7" s="8">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14" t="s">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2053,167 +2181,167 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="9">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2241,19 +2369,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2271,78 +2399,78 @@
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
         <v>0</v>
       </c>
       <c r="N3" t="s">
@@ -2350,158 +2478,158 @@
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="9">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12">
-        <v>1</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2545,229 +2673,229 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="9">
-        <v>0</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
+      <c r="A14" s="8">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="9">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <v>1</v>
-      </c>
-      <c r="L15" s="12">
+      <c r="A15" s="8">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
+      <c r="L15" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="9">
-        <v>0</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
-      <c r="K16" s="12">
-        <v>1</v>
-      </c>
-      <c r="L16" s="12">
+      <c r="A16" s="8">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="9">
-        <v>1</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>1</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12">
-        <v>1</v>
-      </c>
-      <c r="K18" s="12">
-        <v>1</v>
-      </c>
-      <c r="L18" s="12">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="9">
-        <v>1</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>1</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12">
-        <v>1</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
-        <v>1</v>
-      </c>
-      <c r="L19" s="12">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2801,155 +2929,155 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="9">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2982,122 +3110,122 @@
       <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="9">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
         <v>0</v>
       </c>
     </row>
